--- a/sample/exp0_vs_exp1/death/marg_bias.xlsx
+++ b/sample/exp0_vs_exp1/death/marg_bias.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,26 +412,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>age_group_55-64</t>
+          <t>outcome1</t>
         </is>
       </c>
       <c r="B2">
-        <v>0.1904761904761905</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C2">
-        <v>0.1633466135458167</v>
+        <v>0.2788844621513944</v>
       </c>
       <c r="D2">
-        <v>0.03153253006684358</v>
+        <v>-0.5190132962439933</v>
       </c>
       <c r="E2">
-        <v>1.032034947215417</v>
+        <v>0.5951074531310462</v>
       </c>
       <c r="F2">
-        <v>0.9991361763957383</v>
+        <v>1.018718546865244</v>
       </c>
       <c r="G2">
-        <v>0.0008641969148698702</v>
+        <v>0.01854551085361088</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -452,26 +452,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>age_group_18-24</t>
+          <t>cov1</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.05627705627705628</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C3">
-        <v>0.09561752988047809</v>
+        <v>0.298804780876494</v>
       </c>
       <c r="D3">
-        <v>0.05682519157813715</v>
+        <v>0.1052024003924241</v>
       </c>
       <c r="E3">
-        <v>1.05847076461824</v>
+        <v>1.110935441371286</v>
       </c>
       <c r="F3">
-        <v>1.00229272322295</v>
+        <v>1.001407585260824</v>
       </c>
       <c r="G3">
-        <v>0.002290098943460763</v>
+        <v>0.001406595541324469</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -484,366 +484,6 @@
         </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>death</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>age_group_25-34</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>0.0735930735930736</v>
-      </c>
-      <c r="C4">
-        <v>0.151394422310757</v>
-      </c>
-      <c r="D4">
-        <v>-0.1838041367548185</v>
-      </c>
-      <c r="E4">
-        <v>0.8320987654315654</v>
-      </c>
-      <c r="F4">
-        <v>1.015469078207941</v>
-      </c>
-      <c r="G4">
-        <v>0.01535065175484603</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>regionA</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>exp0_vs_exp1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>death</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>age_group_35-44</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>0.1515151515151515</v>
-      </c>
-      <c r="C5">
-        <v>0.1354581673306773</v>
-      </c>
-      <c r="D5">
-        <v>0.262221672141369</v>
-      </c>
-      <c r="E5">
-        <v>1.299814643191585</v>
-      </c>
-      <c r="F5">
-        <v>0.9953950668333158</v>
-      </c>
-      <c r="G5">
-        <v>0.004615568534083223</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>regionA</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>exp0_vs_exp1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>death</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>age_group_45-54</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>0.1558441558441558</v>
-      </c>
-      <c r="C6">
-        <v>0.1274900398406374</v>
-      </c>
-      <c r="D6">
-        <v>-0.4769240720913577</v>
-      </c>
-      <c r="E6">
-        <v>0.6206896551717631</v>
-      </c>
-      <c r="F6">
-        <v>0.9841792251284316</v>
-      </c>
-      <c r="G6">
-        <v>0.01594725915708047</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>regionA</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>exp0_vs_exp1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>death</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>age_group_65-74</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>0.1082251082251082</v>
-      </c>
-      <c r="C7">
-        <v>0.1354581673306773</v>
-      </c>
-      <c r="D7">
-        <v>0.08751100228192665</v>
-      </c>
-      <c r="E7">
-        <v>1.091454272864512</v>
-      </c>
-      <c r="F7">
-        <v>1.002466170331104</v>
-      </c>
-      <c r="G7">
-        <v>0.002463134323569832</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>regionA</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>exp0_vs_exp1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>death</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>age_group_75-84</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>0.1731601731601732</v>
-      </c>
-      <c r="C8">
-        <v>0.1155378486055777</v>
-      </c>
-      <c r="D8">
-        <v>0.262221672141363</v>
-      </c>
-      <c r="E8">
-        <v>1.299814643191577</v>
-      </c>
-      <c r="F8">
-        <v>0.9835766188492843</v>
-      </c>
-      <c r="G8">
-        <v>0.01655973991766843</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>regionA</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>exp0_vs_exp1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>death</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>age_group_&gt;85</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C9">
-        <v>0.07569721115537849</v>
-      </c>
-      <c r="D9">
-        <v>-0.2281249833626211</v>
-      </c>
-      <c r="E9">
-        <v>0.7960247637662015</v>
-      </c>
-      <c r="F9">
-        <v>0.9961908067935424</v>
-      </c>
-      <c r="G9">
-        <v>0.003816466659433197</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>regionA</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>exp0_vs_exp1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>death</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="C10">
-        <v>0.4900398406374502</v>
-      </c>
-      <c r="D10">
-        <v>0.1343160140859714</v>
-      </c>
-      <c r="E10">
-        <v>1.143754204979874</v>
-      </c>
-      <c r="F10">
-        <v>1.001863349906767</v>
-      </c>
-      <c r="G10">
-        <v>0.001861616023882426</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>regionA</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>exp0_vs_exp1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>death</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>outcome1</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>0.2467532467532468</v>
-      </c>
-      <c r="C11">
-        <v>0.2788844621513944</v>
-      </c>
-      <c r="D11">
-        <v>-0.5190132962439952</v>
-      </c>
-      <c r="E11">
-        <v>0.5951074531310451</v>
-      </c>
-      <c r="F11">
-        <v>1.018718546865244</v>
-      </c>
-      <c r="G11">
-        <v>0.0185455108536111</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>regionA</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>exp0_vs_exp1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>death</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>cov1</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="C12">
-        <v>0.298804780876494</v>
-      </c>
-      <c r="D12">
-        <v>0.1052024003924241</v>
-      </c>
-      <c r="E12">
-        <v>1.110935441371286</v>
-      </c>
-      <c r="F12">
-        <v>1.001407585260824</v>
-      </c>
-      <c r="G12">
-        <v>0.001406595541324469</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>regionA</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>exp0_vs_exp1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
         <is>
           <t>death</t>
         </is>
